--- a/premise/data/additional_inventories/lci-biogas.xlsx
+++ b/premise/data/additional_inventories/lci-biogas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B8301E-E141-3548-99EE-F161FAFCC8A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9CA744B-C2F3-6444-A675-B7DFFA5938BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="162">
   <si>
     <t>Activity</t>
   </si>
@@ -493,12 +493,6 @@
     <t>sodium hydroxide, without water, in 50% solution state</t>
   </si>
   <si>
-    <t>market for water, decarbonised, at user</t>
-  </si>
-  <si>
-    <t>water, decarbonised, at user</t>
-  </si>
-  <si>
     <t>treatment of residue from cooling tower, sanitary landfill</t>
   </si>
   <si>
@@ -515,6 +509,15 @@
   </si>
   <si>
     <t>Biomethane-fired, Combined Cycle. 420 MWel. 7500 full load hours per year. 25 years lifetime. 62% net electrical efficiency.</t>
+  </si>
+  <si>
+    <t>market for water, decarbonised</t>
+  </si>
+  <si>
+    <t>water, decarbonised</t>
+  </si>
+  <si>
+    <t>RoW</t>
   </si>
 </sst>
 </file>
@@ -901,8 +904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -929,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M3" t="s">
         <v>108</v>
@@ -962,7 +965,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -970,7 +973,7 @@
         <v>79</v>
       </c>
       <c r="B7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -2044,13 +2047,13 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B41">
         <v>2.9049999999999998</v>
       </c>
       <c r="C41" t="s">
-        <v>34</v>
+        <v>161</v>
       </c>
       <c r="D41" t="s">
         <v>7</v>
@@ -2077,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
@@ -2121,7 +2124,7 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B43">
         <v>-5.8099999999999994E-6</v>
@@ -2133,7 +2136,7 @@
         <v>7</v>
       </c>
       <c r="E43" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F43" t="s">
         <v>35</v>
@@ -2154,7 +2157,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">

--- a/premise/data/additional_inventories/lci-biogas.xlsx
+++ b/premise/data/additional_inventories/lci-biogas.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9CA744B-C2F3-6444-A675-B7DFFA5938BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B456EAB-33A6-D94E-BEBA-3CE2BCD158D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Biogas" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1" iterateDelta="0.01" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="163">
   <si>
     <t>Activity</t>
   </si>
@@ -518,6 +518,9 @@
   </si>
   <si>
     <t>RoW</t>
+  </si>
+  <si>
+    <t>scale</t>
   </si>
 </sst>
 </file>
@@ -902,10 +905,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M109"/>
+  <dimension ref="A1:N109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -916,7 +919,7 @@
     <col min="5" max="5" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -924,10 +927,10 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
     </row>
-    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -938,7 +941,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -949,7 +952,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -960,7 +963,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -968,7 +971,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>79</v>
       </c>
@@ -976,7 +979,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -987,7 +990,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -998,7 +1001,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1009,7 +1012,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -1017,7 +1020,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1043,22 +1046,25 @@
         <v>110</v>
       </c>
       <c r="I12" t="s">
+        <v>162</v>
+      </c>
+      <c r="J12" t="s">
         <v>111</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>1</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>112</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>113</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>107</v>
       </c>
@@ -1077,20 +1083,20 @@
       <c r="F13" t="s">
         <v>30</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>100</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>108</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>115</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>116</v>
       </c>
@@ -1113,19 +1119,33 @@
         <v>-27.862953173275841</v>
       </c>
       <c r="I14">
+        <f>LN(SQRT(EXP(
+SQRT(
++POWER(LN(1.05),2)
++POWER(LN(1.2),2)
++POWER(LN(1),2)
++POWER(LN(1.01),2)
++POWER(LN(1.2),2)
++POWER(LN(1.2),2)
++POWER(LN(1.5),2)
+)
+)))</f>
+        <v>0.25816898211842121</v>
+      </c>
+      <c r="J14">
         <v>0.80471895621705025</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>118</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>0</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>119</v>
       </c>
@@ -1148,19 +1168,33 @@
         <v>-20.946409388260619</v>
       </c>
       <c r="I15">
+        <f t="shared" ref="I15:I37" si="0">LN(SQRT(EXP(
+SQRT(
++POWER(LN(1.05),2)
++POWER(LN(1.2),2)
++POWER(LN(1),2)
++POWER(LN(1.01),2)
++POWER(LN(1.2),2)
++POWER(LN(1.2),2)
++POWER(LN(1.5),2)
+)
+)))</f>
+        <v>0.25816898211842121</v>
+      </c>
+      <c r="J15">
         <v>1.0397207708399181</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>120</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>0</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>121</v>
       </c>
@@ -1183,19 +1217,33 @@
         <v>-15.927475291349671</v>
       </c>
       <c r="I16">
+        <f>LN(SQRT(EXP(
+SQRT(
++POWER(LN(1.05),2)
++POWER(LN(1.2),2)
++POWER(LN(1),2)
++POWER(LN(1.01),2)
++POWER(LN(1.2),2)
++POWER(LN(1.2),2)
++POWER(LN(1.5),2)
+)
+)))</f>
+        <v>0.25816898211842121</v>
+      </c>
+      <c r="J16">
         <v>1.0397207708399181</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>120</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>0</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>122</v>
       </c>
@@ -1218,19 +1266,33 @@
         <v>-20.80014688128237</v>
       </c>
       <c r="I17">
+        <f>LN(SQRT(EXP(
+SQRT(
++POWER(LN(1.05),2)
++POWER(LN(1.2),2)
++POWER(LN(1),2)
++POWER(LN(1.01),2)
++POWER(LN(1.2),2)
++POWER(LN(1.2),2)
++POWER(LN(1.5),2)
+)
+)))</f>
+        <v>0.25816898211842121</v>
+      </c>
+      <c r="J17">
         <v>0.80471895621705025</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>118</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>0</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>123</v>
       </c>
@@ -1253,19 +1315,33 @@
         <v>-28.267787963052381</v>
       </c>
       <c r="I18">
+        <f>LN(SQRT(EXP(
+SQRT(
++POWER(LN(1.05),2)
++POWER(LN(1.2),2)
++POWER(LN(1),2)
++POWER(LN(1.01),2)
++POWER(LN(1.2),2)
++POWER(LN(1.2),2)
++POWER(LN(1.5),2)
+)
+)))</f>
+        <v>0.25816898211842121</v>
+      </c>
+      <c r="J18">
         <v>0.80471895621705025</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>118</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>0</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>124</v>
       </c>
@@ -1288,19 +1364,23 @@
         <v>-13.892391602300229</v>
       </c>
       <c r="I19">
+        <f t="shared" si="0"/>
+        <v>0.25816898211842121</v>
+      </c>
+      <c r="J19">
         <v>0.80471895621705025</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>118</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>0</v>
       </c>
-      <c r="M19" t="s">
+      <c r="N19" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>93</v>
       </c>
@@ -1324,19 +1404,23 @@
         <v>-2.8824035882469881</v>
       </c>
       <c r="I20">
+        <f t="shared" si="0"/>
+        <v>0.25816898211842121</v>
+      </c>
+      <c r="J20">
         <v>2.439508208471609E-2</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>125</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>0</v>
       </c>
-      <c r="M20" t="s">
+      <c r="N20" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>84</v>
       </c>
@@ -1359,19 +1443,23 @@
         <v>-13.027053197600001</v>
       </c>
       <c r="I21">
+        <f t="shared" si="0"/>
+        <v>0.25816898211842121</v>
+      </c>
+      <c r="J21">
         <v>0.20273255405408211</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>126</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>0</v>
       </c>
-      <c r="M21" t="s">
+      <c r="N21" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>127</v>
       </c>
@@ -1394,19 +1482,23 @@
         <v>-13.81551055796427</v>
       </c>
       <c r="I22">
+        <f t="shared" si="0"/>
+        <v>0.25816898211842121</v>
+      </c>
+      <c r="J22">
         <v>0.54930614433405478</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>128</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>0</v>
       </c>
-      <c r="M22" t="s">
+      <c r="N22" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>129</v>
       </c>
@@ -1429,19 +1521,23 @@
         <v>-38.079235843906353</v>
       </c>
       <c r="I23">
+        <f t="shared" si="0"/>
+        <v>0.25816898211842121</v>
+      </c>
+      <c r="J23">
         <v>1.0397207708399181</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>120</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>0</v>
       </c>
-      <c r="M23" t="s">
+      <c r="N23" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>130</v>
       </c>
@@ -1464,19 +1560,23 @@
         <v>-13.500699818124239</v>
       </c>
       <c r="I24">
+        <f t="shared" si="0"/>
+        <v>0.25816898211842121</v>
+      </c>
+      <c r="J24">
         <v>0.80471895621705025</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>118</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>0</v>
       </c>
-      <c r="M24" t="s">
+      <c r="N24" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>131</v>
       </c>
@@ -1499,19 +1599,23 @@
         <v>-17.223732554563391</v>
       </c>
       <c r="I25">
+        <f t="shared" si="0"/>
+        <v>0.25816898211842121</v>
+      </c>
+      <c r="J25">
         <v>0.80471895621705025</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>118</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>0</v>
       </c>
-      <c r="M25" t="s">
+      <c r="N25" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>132</v>
       </c>
@@ -1534,19 +1638,23 @@
         <v>-0.64435701639051324</v>
       </c>
       <c r="I26">
+        <f t="shared" si="0"/>
+        <v>0.25816898211842121</v>
+      </c>
+      <c r="J26">
         <v>2.439508208471609E-2</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>133</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>0</v>
       </c>
-      <c r="M26" t="s">
+      <c r="N26" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>134</v>
       </c>
@@ -1569,19 +1677,23 @@
         <v>-14.04744261531156</v>
       </c>
       <c r="I27">
+        <f t="shared" si="0"/>
+        <v>0.25816898211842121</v>
+      </c>
+      <c r="J27">
         <v>0.80471895621705025</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>118</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>0</v>
       </c>
-      <c r="M27" t="s">
+      <c r="N27" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>135</v>
       </c>
@@ -1604,19 +1716,23 @@
         <v>-24.22982373426639</v>
       </c>
       <c r="I28">
+        <f t="shared" si="0"/>
+        <v>0.25816898211842121</v>
+      </c>
+      <c r="J28">
         <v>0.80471895621705025</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>136</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>0</v>
       </c>
-      <c r="M28" t="s">
+      <c r="N28" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -1639,19 +1755,23 @@
         <v>-13.81551055796427</v>
       </c>
       <c r="I29">
+        <f t="shared" si="0"/>
+        <v>0.25816898211842121</v>
+      </c>
+      <c r="J29">
         <v>0.80471895621705025</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>137</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>0</v>
       </c>
-      <c r="M29" t="s">
+      <c r="N29" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>85</v>
       </c>
@@ -1674,19 +1794,23 @@
         <v>-10.51229358466232</v>
       </c>
       <c r="I30">
+        <f t="shared" si="0"/>
+        <v>0.25816898211842121</v>
+      </c>
+      <c r="J30">
         <v>0.20273255405408211</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
         <v>138</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>0</v>
       </c>
-      <c r="M30" t="s">
+      <c r="N30" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>139</v>
       </c>
@@ -1709,19 +1833,23 @@
         <v>-18.64382429526658</v>
       </c>
       <c r="I31">
+        <f t="shared" si="0"/>
+        <v>0.25816898211842121</v>
+      </c>
+      <c r="J31">
         <v>1.0397207708399181</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
         <v>120</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>0</v>
       </c>
-      <c r="M31" t="s">
+      <c r="N31" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>86</v>
       </c>
@@ -1744,19 +1872,23 @@
         <v>-14.508657738524221</v>
       </c>
       <c r="I32">
+        <f t="shared" si="0"/>
+        <v>0.25816898211842121</v>
+      </c>
+      <c r="J32">
         <v>0.54930614433405478</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
         <v>128</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>0</v>
       </c>
-      <c r="M32" t="s">
+      <c r="N32" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>140</v>
       </c>
@@ -1779,19 +1911,23 @@
         <v>-13.67574861558912</v>
       </c>
       <c r="I33">
+        <f t="shared" si="0"/>
+        <v>0.25816898211842121</v>
+      </c>
+      <c r="J33">
         <v>0.80471895621705025</v>
       </c>
-      <c r="K33" t="s">
+      <c r="L33" t="s">
         <v>118</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>0</v>
       </c>
-      <c r="M33" t="s">
+      <c r="N33" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>141</v>
       </c>
@@ -1814,19 +1950,23 @@
         <v>-14.165068034134141</v>
       </c>
       <c r="I34">
+        <f t="shared" si="0"/>
+        <v>0.25816898211842121</v>
+      </c>
+      <c r="J34">
         <v>0.80471895621705025</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
         <v>118</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>0</v>
       </c>
-      <c r="M34" t="s">
+      <c r="N34" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>142</v>
       </c>
@@ -1849,19 +1989,23 @@
         <v>-17.950677114706629</v>
       </c>
       <c r="I35">
+        <f t="shared" si="0"/>
+        <v>0.25816898211842121</v>
+      </c>
+      <c r="J35">
         <v>1.0397207708399181</v>
       </c>
-      <c r="K35" t="s">
+      <c r="L35" t="s">
         <v>120</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>0</v>
       </c>
-      <c r="M35" t="s">
+      <c r="N35" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>27</v>
       </c>
@@ -1884,19 +2028,23 @@
         <v>-14.508657738524221</v>
       </c>
       <c r="I36">
+        <f t="shared" si="0"/>
+        <v>0.25816898211842121</v>
+      </c>
+      <c r="J36">
         <v>4.7655089902162509E-2</v>
       </c>
-      <c r="K36" t="s">
+      <c r="L36" t="s">
         <v>125</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>0</v>
       </c>
-      <c r="M36" t="s">
+      <c r="N36" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>143</v>
       </c>
@@ -1919,19 +2067,23 @@
         <v>-20.31780072883825</v>
       </c>
       <c r="I37">
+        <f t="shared" si="0"/>
+        <v>0.25816898211842121</v>
+      </c>
+      <c r="J37">
         <v>0.80471895621705025</v>
       </c>
-      <c r="K37" t="s">
+      <c r="L37" t="s">
         <v>118</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>0</v>
       </c>
-      <c r="M37" t="s">
+      <c r="N37" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>144</v>
       </c>
@@ -1957,19 +2109,33 @@
         <v>-26.847119572100141</v>
       </c>
       <c r="I38">
+        <f t="shared" ref="I15:I43" si="1">LN(SQRT(EXP(
+SQRT(
++POWER(LN(1.05),2)
++POWER(LN(1.2),2)
++POWER(LN(1),2)
++POWER(LN(1.01),2)
++POWER(LN(1.2),2)
++POWER(LN(1.2),2)
++POWER(LN(3),2)
+)
+)))</f>
+        <v>0.57209088006881903</v>
+      </c>
+      <c r="J38">
         <v>0.3465735902799727</v>
       </c>
-      <c r="K38" t="s">
+      <c r="L38" t="s">
         <v>146</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>0</v>
       </c>
-      <c r="M38" t="s">
+      <c r="N38" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>148</v>
       </c>
@@ -1995,19 +2161,23 @@
         <v>-12.899219826090119</v>
       </c>
       <c r="I39">
+        <f t="shared" si="1"/>
+        <v>0.57209088006881903</v>
+      </c>
+      <c r="J39">
         <v>0.1075556898084728</v>
       </c>
-      <c r="K39" t="s">
+      <c r="L39" t="s">
         <v>149</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>0</v>
       </c>
-      <c r="M39" t="s">
+      <c r="N39" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>151</v>
       </c>
@@ -2033,19 +2203,23 @@
         <v>-13.12236337740433</v>
       </c>
       <c r="I40">
+        <f t="shared" si="1"/>
+        <v>0.57209088006881903</v>
+      </c>
+      <c r="J40">
         <v>0.1075556898084728</v>
       </c>
-      <c r="K40" t="s">
+      <c r="L40" t="s">
         <v>149</v>
       </c>
-      <c r="L40">
+      <c r="M40">
         <v>0</v>
       </c>
-      <c r="M40" t="s">
+      <c r="N40" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>159</v>
       </c>
@@ -2071,19 +2245,23 @@
         <v>-0.69314718055994529</v>
       </c>
       <c r="I41">
+        <f t="shared" si="1"/>
+        <v>0.57209088006881903</v>
+      </c>
+      <c r="J41">
         <v>0.45814536593707761</v>
       </c>
-      <c r="K41" t="s">
+      <c r="L41" t="s">
         <v>137</v>
       </c>
-      <c r="L41">
+      <c r="M41">
         <v>0</v>
       </c>
-      <c r="M41" t="s">
+      <c r="N41" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>104</v>
       </c>
@@ -2110,19 +2288,23 @@
         <v>2.564102564102564E-2</v>
       </c>
       <c r="I42">
+        <f t="shared" si="1"/>
+        <v>0.57209088006881903</v>
+      </c>
+      <c r="J42">
         <v>0</v>
       </c>
-      <c r="K42" t="s">
+      <c r="L42" t="s">
         <v>108</v>
       </c>
-      <c r="L42">
+      <c r="M42">
         <v>0</v>
       </c>
-      <c r="M42" t="s">
+      <c r="N42" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>153</v>
       </c>
@@ -2148,24 +2330,38 @@
         <v>-13.81551055796427</v>
       </c>
       <c r="I43">
+        <f>LN(SQRT(EXP(
+SQRT(
++POWER(LN(1.05),2)
++POWER(LN(1.2),2)
++POWER(LN(1),2)
++POWER(LN(1.01),2)
++POWER(LN(1.2),2)
++POWER(LN(1.2),2)
++POWER(LN(3),2)
+)
+)))</f>
+        <v>0.57209088006881903</v>
+      </c>
+      <c r="J43">
         <v>1.0397207708399181</v>
       </c>
-      <c r="K43" t="s">
+      <c r="L43" t="s">
         <v>120</v>
       </c>
-      <c r="L43">
+      <c r="M43">
         <v>0</v>
       </c>
-      <c r="M43" t="s">
+      <c r="N43" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="M44" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
@@ -2173,7 +2369,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>2</v>
       </c>
@@ -2181,7 +2377,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -2189,7 +2385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>5</v>
       </c>
